--- a/data/interim/interaction_matrices/willem_2012/phases/total_phases.xlsx
+++ b/data/interim/interaction_matrices/willem_2012/phases/total_phases.xlsx
@@ -1,44 +1,115 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="all" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="physical_only" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="less_5_min" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="more_5_min" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="less_15_min" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="more_15_min" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="more_one_hour" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="more_four_hours" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="all" sheetId="1" r:id="rId1"/>
+    <sheet name="physical_only" sheetId="2" r:id="rId2"/>
+    <sheet name="less_5_min" sheetId="3" r:id="rId3"/>
+    <sheet name="more_5_min" sheetId="4" r:id="rId4"/>
+    <sheet name="less_15_min" sheetId="5" r:id="rId5"/>
+    <sheet name="more_15_min" sheetId="6" r:id="rId6"/>
+    <sheet name="more_one_hour" sheetId="7" r:id="rId7"/>
+    <sheet name="more_four_hours" sheetId="8" r:id="rId8"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="21">
+  <si>
+    <t>contact_[0,12)</t>
+  </si>
+  <si>
+    <t>contact_[12,18)</t>
+  </si>
+  <si>
+    <t>contact_[18,25)</t>
+  </si>
+  <si>
+    <t>contact_[25,35)</t>
+  </si>
+  <si>
+    <t>contact_[35,45)</t>
+  </si>
+  <si>
+    <t>contact_[45,55)</t>
+  </si>
+  <si>
+    <t>contact_[55,65)</t>
+  </si>
+  <si>
+    <t>contact_[65,75)</t>
+  </si>
+  <si>
+    <t>contact_[75,85)</t>
+  </si>
+  <si>
+    <t>contact_85+</t>
+  </si>
+  <si>
+    <t>age_group</t>
+  </si>
+  <si>
+    <t>[0, 12)</t>
+  </si>
+  <si>
+    <t>[12, 18)</t>
+  </si>
+  <si>
+    <t>[18, 25)</t>
+  </si>
+  <si>
+    <t>[25, 35)</t>
+  </si>
+  <si>
+    <t>[35, 45)</t>
+  </si>
+  <si>
+    <t>[45, 55)</t>
+  </si>
+  <si>
+    <t>[55, 65)</t>
+  </si>
+  <si>
+    <t>[65, 75)</t>
+  </si>
+  <si>
+    <t>[75, 85)</t>
+  </si>
+  <si>
+    <t>85+</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -53,26 +124,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -360,3569 +440,3185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>age_group</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[0,12)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[12,18)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[18,25)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[25,35)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[35,45)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[45,55)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[55,65)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[65,75)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[75,85)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>contact_85+</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>[0, 12)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
         <v>8.61114955807408</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.833935019404327</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.5682801153101441</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>1.75586950288063</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>2.11664332286198</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>1.07760315247374</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>0.930447609887303</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>0.388143895268713</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>0.194554932281382</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>0.0208399703766592</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>[12, 18)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
         <v>1.62464948703735</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>10.2024509978958</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2.3531644554918</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>3.11148900845971</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>2.1581076325096</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>1.83025706646436</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.381448289384702</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>0.349867966315856</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>0.111544111686216</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>0.0918308668798731</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>[18, 25)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
         <v>0.9048016366270841</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1.92316138872708</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>6.15189471041101</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>3.12873167064806</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>2.2125539396801</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>3.27484972895714</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0.8422105776160601</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.336796325334897</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>0.154446742604574</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>0.10279999442724</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>[25, 35)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
         <v>1.83312729034624</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1.66740535554375</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>2.05152960228826</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>5.27218354538779</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>4.170866949193</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>4.43751605593746</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>2.23509140024301</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.5238988562048279</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>0.310510153563409</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>0.203968808302052</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>[35, 45)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
         <v>2.05061850063921</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>1.07320533968284</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1.34629471183976</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>3.87046495272467</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>5.38623365438201</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>4.03246549227232</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>2.1837257370587</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.9693050987879929</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>0.454288546176596</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>0.164078026856949</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>[45, 55)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
         <v>1.00280448519873</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.8742628827204059</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>1.91407025160079</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>3.95545970650394</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>3.8733869389069</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>5.2402877879435</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>2.52785646912505</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>1.22236571064588</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>0.763777653609236</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>0.145128421051211</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>[55, 65)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
         <v>1.02952012568295</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.216646222851063</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.5852921377741911</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>2.36885139316917</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>2.49404232042816</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>3.00564658263296</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>2.58577059395861</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>0.81215397604949</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>0.461924748042262</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>0.191576374694039</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>[65, 75)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
         <v>0.619371762519808</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.286573056751293</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.337547634348598</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.8007661473487521</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>1.59654788459805</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>2.09605360887651</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>1.17126212654357</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>1.99325316005328</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>0.8470941302027479</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>0.123857848011403</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>[75, 85)</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
         <v>0.39848572365866</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.117270750465588</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.198681924011471</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.609180426001695</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.9604286755057589</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>1.68104776918448</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>0.855064420629336</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>1.08728538902178</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>0.913586801881675</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>0.302370126956865</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>85+</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
         <v>0.125360588349138</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.283547055857157</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.388388263729695</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>1.17524197889506</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>1.01877237186244</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>0.9381212643774459</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>1.04150883593759</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0.466905309532618</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>0.888039503366962</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>1.12414684090862</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>age_group</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[0,12)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[12,18)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[18,25)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[25,35)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[35,45)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[45,55)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[55,65)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[65,75)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[75,85)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>contact_85+</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>[0, 12)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
         <v>4.95011276316063</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.428506302982155</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.4012594048414529</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>1.12482184011456</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>1.42839432233008</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0.6389189759977479</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>0.5970939246885589</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>0.322965160690765</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>0.174468874310895</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>0.0143797737499922</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>[12, 18)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
         <v>0.834804306250982</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>5.34714348739267</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1.06745117850894</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>1.25202084885098</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>1.1723976544487</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0.877439672446519</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.152597245857336</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>0.251382149255555</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>0.0706499964120099</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>0.0742989834268732</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>[18, 25)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
         <v>0.6388753652138829</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.8723915942502929</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>2.58301722544248</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>1.19835843870504</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.8079111357607449</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>1.43862569246641</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0.351962774777115</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.117325315772357</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>0.0738300834471524</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>0.0592802238261513</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>[25, 35)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
         <v>1.1743136995709</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.670941231979473</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.785771382768054</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>2.45158747703602</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>1.44196131998854</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>1.620038093953</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>0.9017294789904959</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.210875254102876</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>0.149284442880086</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>0.08761361238041099</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>[35, 45)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
         <v>1.38383817053199</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.583021626925453</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.49159772794891</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>1.33810567927133</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>2.39231092782578</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>1.523002666951</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>0.726209612092817</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.430966501354483</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>0.205411253946177</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>0.103627618358709</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>[45, 55)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
         <v>0.5945702862304271</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.419128521070666</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.840841830631239</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>1.44405007730812</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1.46292104653924</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>2.37606867486476</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>1.09707753987727</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.50294989247226</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>0.390832111159366</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>0.0892548138875776</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>[55, 65)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
         <v>0.66067149386772</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.0866686726680405</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.244595651421685</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>0.9556938621553009</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.8294070428920859</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>1.30443614931856</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>1.40751691798508</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>0.349826944611701</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>0.249570552933473</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>0.107629463462997</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>[65, 75)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
         <v>0.515364284348841</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.205904392115276</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.117587039433349</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.3223174908653161</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.709847350365188</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0.8624341537227019</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>0.5045090748200329</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>1.1961521443084</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>0.531364697589447</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>0.0733814531738432</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>[75, 85)</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
         <v>0.357345634060503</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.0742771444801538</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.0949758006017882</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.2928766079481699</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.434267736270008</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>0.860207739104985</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>0.46197762980796</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>0.682031726264824</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>0.501777727933594</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>0.112484256265844</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>85+</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
         <v>0.08649997409043771</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.229413689750183</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.223966385734023</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.504818339868996</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.643431400097229</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>0.576949974715438</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>0.5851297550804979</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0.2766251041672571</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>0.330358240333616</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>0.246486184482509</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>age_group</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[0,12)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[12,18)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[18,25)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[25,35)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[35,45)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[45,55)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[55,65)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[65,75)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[75,85)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>contact_85+</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>[0, 12)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
         <v>0.681542030821166</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.07629720780209551</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.0673250408797636</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.204111887681845</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.205478805106055</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0.159347146392897</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>0.138496821941407</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>0.0389436963402174</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>0.00697210404917267</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>0.00325692415996035</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>[12, 18)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
         <v>0.14864014177819</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.7429235759975809</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.280337756297568</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.4297381808042629</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.213571023514909</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0.147864438345638</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.0807281169558124</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>0.0365324833913055</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>0.005488636104237461</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>0.006244525074370171</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>[18, 25)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
         <v>0.10719327587373</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.229110527084341</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.4911195735937829</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0.6151455764846719</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.377263039282984</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0.430445137367389</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0.173015744522088</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.0613755952523987</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>0.0238575655166018</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>0.0312099746418485</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>[25, 35)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
         <v>0.213092756027617</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.230290945012649</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.403354935072966</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0.8456268998861758</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.8436962317580781</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>0.7511175277924241</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>0.405780083949946</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.126919633574743</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>0.0667544637735151</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>0.0513319342719761</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>[35, 45)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
         <v>0.199069269105757</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.106206733800016</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.229556995493051</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0.782929960495944</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.7874130599681359</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>0.6601264202804991</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>0.4461587436579961</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.127793457305902</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>0.08545301789122099</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>0.0278351836304916</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>[45, 55)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
         <v>0.14828653084356</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.0706307285946539</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.251584744513912</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0.6695221106989631</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0.6340847948337951</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0.80684349248322</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>0.458738980969601</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.218039508277865</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>0.09638476735667981</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>0.0122808116455333</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>[55, 65)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
         <v>0.153243733464022</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.0458500984355365</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.120236859606493</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>0.430064165197281</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.509559771828702</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>0.545445228917227</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>0.394356856594749</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>0.170654917759762</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>0.0331154719046539</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>0.0344733198586057</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>[65, 75)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
         <v>0.0621435146482925</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.0299233609364248</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.0615125089728455</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.193993448920275</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.210489322899801</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0.373883604737238</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>0.246112988146273</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>0.231666068910893</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>0.104583416803844</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>0.0293418860712367</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>[75, 85)</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
         <v>0.0142802029991193</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.00577042091461639</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.0306906247366061</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.130963552117018</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.180659471787192</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>0.212139485074812</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>0.0612997288368478</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>0.134237762924384</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>0.0656646916598518</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>0.0466157966090882</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>85+</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
         <v>0.019591675109022</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.0192812804694532</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.117914285207232</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.295767987843373</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.172830674476516</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>0.0793841100525968</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>0.187414900684816</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0.110609724117767</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>0.136907270855151</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>0.120618735567101</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>age_group</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[0,12)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[12,18)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[18,25)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[25,35)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[35,45)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[45,55)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[55,65)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[65,75)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[75,85)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>contact_85+</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>[0, 12)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
         <v>7.929607527252914</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.7576378116022315</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.5009550744303806</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>1.551757615198785</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>1.911164517755925</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0.9182560060808429</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>0.791950787945896</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>0.3492001989284956</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>0.1875828282322093</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>0.01758304621669885</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>[12, 18)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
         <v>1.47600934525916</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>9.459527421898219</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2.072826699194232</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>2.681750827655447</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>1.944536608994691</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>1.682392628118722</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.3007201724288896</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>0.3133354829245505</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>0.1060554755819785</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>0.08558634180550292</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>[18, 25)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
         <v>0.7976083607533542</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1.694050861642739</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>5.660775136817227</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>2.513586094163388</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>1.835290900397116</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>2.84440459158975</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0.6691948330939721</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.2754207300824982</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>0.1305891770879722</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>0.07159001978539151</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>[25, 35)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
         <v>1.620034534318623</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1.437114410531101</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>1.648174667215294</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>4.426556645501615</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>3.327170717434922</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>3.686398528145036</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>1.829311316293063</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.3969792226300849</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>0.2437556897898939</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>0.1526368740300759</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>[35, 45)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
         <v>1.851549231533453</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.966998605882824</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1.116737716346709</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>3.087534992228727</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>4.598820594413874</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>3.372339071991821</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>1.737566993400704</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.8415116414820909</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>0.368835528285375</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>0.1362428432264574</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>[45, 55)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
         <v>0.8545179543551699</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.803632154125752</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>1.662485507086878</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>3.285937595804977</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>3.239302144073105</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>4.43344429546028</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>2.069117488155449</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>1.004326202368015</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>0.6673928862525562</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>0.1328476094056777</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>[55, 65)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
         <v>0.8762763922189281</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.1707961244155265</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.4650552781676981</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>1.938787227971889</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>1.984482548599458</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>2.460201353715733</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>2.191413737363861</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>0.641499058289728</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>0.4288092761376081</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>0.1571030548354332</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>[65, 75)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
         <v>0.5572282478715155</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.2566496958148682</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.2760351253757525</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.606772698428477</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>1.386058561698249</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>1.722170004139272</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>0.9251491383972971</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>1.761587091142387</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>0.742510713398904</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>0.09451596194016632</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>[75, 85)</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
         <v>0.3842055206595407</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.1115003295509716</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.1679912992748649</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.4782168738846769</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.779769203718567</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>1.468908284109668</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>0.7937646917924882</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>0.9530476260973959</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>0.8479221102218232</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>0.2557543303477768</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>85+</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
         <v>0.105768913240116</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.2642657753877038</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.270473978522463</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.8794739910516871</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.845941697385924</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>0.8587371543248491</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>0.8540939352527739</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0.356295585414851</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>0.751132232511811</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>1.003528105341519</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>age_group</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[0,12)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[12,18)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[18,25)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[25,35)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[35,45)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[45,55)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[55,65)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[65,75)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[75,85)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>contact_85+</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>[0, 12)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
         <v>1.54137062021063</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.119604105957403</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.114691758927535</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.423342361536159</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.462771899397293</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0.35327677733171</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>0.247637088025629</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>0.074076293797916</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>0.0144092519084002</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>0.00766920651060333</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>[12, 18)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
         <v>0.233009461012984</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>2.19582129182266</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.6469312623902409</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.9857790602737559</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.437151760036341</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0.392753932609575</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.121798895673654</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>0.0878058776309488</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>0.0217244012975999</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>0.0141844070711024</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>[18, 25)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
         <v>0.18260940052185</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.528714948964056</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1.23092568575571</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>1.1305069168021</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.8292672328339159</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>1.00920237258757</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0.340949641567182</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.103368158627475</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>0.0419678028100008</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>0.0744887349886124</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>[25, 35)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
         <v>0.441969311966753</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.5282658174315801</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.741280700792963</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>1.67044153542384</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>1.76164363696759</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>1.74769103262426</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>0.792890587863574</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.216697268486535</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>0.128822099353349</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>0.131097553466257</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>[35, 45)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
         <v>0.448336575288891</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.217391197758375</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.504592484840262</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>1.63476323726719</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>1.84974382535975</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>1.57506738210197</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>0.9029073903488009</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.348064758187189</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>0.186539086447151</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>0.120986237351138</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>[45, 55)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
         <v>0.32875510433645</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.187607627154985</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.589854313660355</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>1.55783581891809</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1.51293183721559</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>1.86171397418868</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>0.9454752543534841</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.444041492228085</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>0.2646778895321389</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>0.0554803412314228</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>[55, 65)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
         <v>0.274005073771737</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.0691765343546093</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.23694210199907</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>0.8403414614217271</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>1.03121431631353</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>1.12417951807018</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>0.685307379018365</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>0.331300077813952</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>0.125209233364229</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>0.0664410230621065</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>[65, 75)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
         <v>0.118205555233033</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.07192084207764921</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.103598747334847</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.331216292556894</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.5732994225262329</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0.761420877704266</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>0.477790228340609</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>0.633741563247053</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>0.240182918558217</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>0.0595541237023913</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>[75, 85)</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
         <v>0.0295129046936439</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.0228397250654689</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.0539878256297913</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.252732158552362</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.394369369939711</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>0.5825467315623989</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>0.231773597404728</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>0.308286138139633</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>0.287845977276629</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>0.088902723073483</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>85+</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
         <v>0.0461332824837918</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.0437973309056502</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.281425603287607</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.755367202694174</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.751212324709346</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>0.358629188460258</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>0.36120796574438</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0.22450040112637</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>0.261100958751156</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>0.436312322091484</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>age_group</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[0,12)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[12,18)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[18,25)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[25,35)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[35,45)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[45,55)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[55,65)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[65,75)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[75,85)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>contact_85+</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>[0, 12)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
         <v>6.913632208677321</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.5558727859346079</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.444961855812399</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>1.31015900803523</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>1.60032744276173</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0.7092548503919358</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>0.670011420823567</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>0.303346882520996</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>0.173290494411102</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>0.0131707638660558</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>[12, 18)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
         <v>1.08293621866576</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>7.722434229389401</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1.63396868405689</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>2.10931210946215</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>1.6561587798513</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>1.40465071423965</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.247555811459298</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>0.236884904732301</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>0.08981971038861621</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>0.0776464598087707</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>[18, 25)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
         <v>0.7084573338554341</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1.33538711084715</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>4.66687273767531</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>1.96240115345154</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>1.35547205034096</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>2.18305059814855</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0.475487973970262</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.233428166707422</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>0.103507588040718</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>0.0230794460264769</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>[25, 35)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
         <v>1.36780565320042</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1.13035215559754</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>1.2867591349042</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>3.56343155392748</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>2.36725409453137</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>2.6490383225566</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>1.40244185787633</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.299371543981738</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>0.168370431682466</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>0.0624318966865731</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>[35, 45)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
         <v>1.55040815132263</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.823591195881251</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.8247775661842092</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>2.19675528341906</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>3.41551251971203</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>2.39736760289952</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>1.24322296715703</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.604931611391516</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>0.259262641580603</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>0.0416705733474487</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>[45, 55)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
         <v>0.660024001868646</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.6709625686727779</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>1.27594013572833</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>2.36126792867317</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>2.30279276502794</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>3.29610158986793</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>1.53026159154366</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.769930341079881</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>0.482166958952888</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>0.0845202334629078</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>[55, 65)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
         <v>0.7413531238570671</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.140601053904313</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.330439180137966</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>1.48637158574718</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>1.41989016349379</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>1.81949631212631</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>1.79096276755302</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>0.472823919165487</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>0.3208553588693689</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>0.125135351631933</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>[65, 75)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
         <v>0.484058864694614</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.194029856354694</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.233948887013752</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.457581831036444</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.9963862623865729</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>1.32023931622827</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>0.6818913227960171</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>1.31282922201514</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>0.5979142985841329</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>0.06430372430901141</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>[75, 85)</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
         <v>0.354932086577497</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.0944310254001189</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.133153256552447</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.330320828872569</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.548117000873246</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>1.06123252872348</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>0.593932242643891</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>0.767451287358268</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>0.5934551178661851</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>0.207696982968766</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>85+</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
         <v>0.0792273058653457</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.239749724951506</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.0871963663034148</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.359724540329935</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.258735612923116</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>0.5463452830767089</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>0.6803008701932081</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0.242404908406248</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>0.609991229830423</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>0.676165174853816</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>age_group</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[0,12)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[12,18)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[18,25)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[25,35)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[35,45)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[45,55)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[55,65)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[65,75)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[75,85)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>contact_85+</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>[0, 12)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
         <v>5.71659130930598</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.466736921439002</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.3539810122574121</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>1.00900548084018</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>1.29351611400248</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0.495350055941307</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>0.439387498148689</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>0.195016103990846</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>0.143029271424122</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>0.00398048801488964</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>[12, 18)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
         <v>0.9092841556634721</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>5.775505428972171</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1.15362010813421</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>1.34469535142864</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>1.2235297733994</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0.986417256920428</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.131970627098463</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>0.151694864061098</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>0.06896500721955159</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>0.0665876839102842</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>[18, 25)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
         <v>0.5635998701989079</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.942814533869537</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>3.49403642669261</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>1.38455505440825</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.886762882454076</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>1.57782214959905</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0.348287311753217</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.07795744081124401</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>0.0586113221791007</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>0.00771554602924104</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>[25, 35)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
         <v>1.05340145153305</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.720604258749041</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.9078617085523391</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>2.55917885069118</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>1.54868919860285</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>1.69797505444625</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>0.914924937965374</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.181760544733784</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>0.102805255622169</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>0.016624193059632</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>[35, 45)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
         <v>1.25316724154634</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.608449118242639</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.53957743487886</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>1.43714660258232</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>2.33531268234267</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>1.51745057163342</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>0.712697446551953</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.355492999135512</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>0.122630868440257</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>0.0139024992366692</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>[45, 55)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
         <v>0.460966782345683</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.4711840814068521</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.9221987843167589</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>1.51352058806063</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1.45758797833868</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>2.30591182343434</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>1.01290274995918</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.466315524902975</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>0.275384527816561</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>0.0360274970426781</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>[55, 65)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
         <v>0.4861727490195251</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.07495364033297119</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.242041397571471</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>0.969679008969766</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.8139747419727691</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>1.20435148361413</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>1.33599665878271</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>0.28866418991236</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>0.202248359116767</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>0.0726812059901934</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>[65, 75)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
         <v>0.311192497217906</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.124251617960974</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.0781313445137512</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.277816394181204</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.585534520007056</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0.799615311796962</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>0.416302133467761</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>0.97477305909134</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>0.461492784104682</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>0.0290359100045052</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>[75, 85)</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
         <v>0.2929513123079339</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.0725056484850819</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.0753982250646385</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.201690504147514</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.259258578151368</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>0.606111666093332</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>0.3743799758388129</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>0.592347819923985</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>0.4385535009992551</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>0.128867685023213</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>85+</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
         <v>0.0239441952384987</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.205603435648784</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.0291500747905628</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.0957864573097028</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.0863216263229785</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>0.232884508997073</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>0.395132846449785</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0.109456290141313</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>0.378475202427617</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>0.26002053031628</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>age_group</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[0,12)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[12,18)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[18,25)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[25,35)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[35,45)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[45,55)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[55,65)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[65,75)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>contact_[75,85)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>contact_85+</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>[0, 12)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
         <v>2.87001724797384</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.19349968602042</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.0403653761050166</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.5692534635566651</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.818299961347235</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0.275774614591684</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>0.173319507169201</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>0.0608704829631808</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>0.0596995779942308</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>[12, 18)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
         <v>0.376970817054205</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>3.22532260500403</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.492315207586941</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.568206239010382</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.794490099259494</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0.532468808296886</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.0378481353361997</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>0.0525987445938536</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>0.00499562005949614</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>0.00117464830884074</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>[18, 25)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
         <v>0.0642687600338686</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.402352498612973</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1.0524487112043</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0.497233924825554</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.438833840784606</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0.681539779313072</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0.162222107238296</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.0227883976424605</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>0.0132605393972413</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>0.0023061936623092</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>[25, 35)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
         <v>0.594300463364663</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.304494125932423</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.326039502080505</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>1.02525277991955</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.640725681668551</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>0.556033456255306</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>0.3556727197419211</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.058959374886391</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>0.0297978609971737</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>0.0005337127438672571</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>[35, 45)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
         <v>0.792774588749364</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.395091979661328</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.267021593747028</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0.594578135773086</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>1.03429384279388</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>0.61702834383901</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>0.219445912115709</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.07969126656900991</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>0.0254552634162266</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>0.00292292853090309</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>[45, 55)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
         <v>0.256632527272818</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.254345536389382</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.398343473696161</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0.4956304166478889</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0.592686913884688</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0.9797996060716949</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>0.465800649952479</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.134847453778563</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>0.0874867572794593</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>0.0106989575346965</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>[55, 65)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
         <v>0.191774280365722</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.021496113079364</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.112735848329633</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>0.37695810452374</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.250630096341088</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>0.5538416238491829</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>0.7811980313730071</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>0.106675215673103</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>0.0718766314333583</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>0.0144804191692407</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>[65, 75)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
         <v>0.0971326839811209</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.0430830612424035</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.0228392329018404</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.0901179128732577</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.131259933761599</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0.231229892722546</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>0.153843536624093</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>0.46886812837609</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>0.170057264152036</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>0.00373788718220075</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>[75, 85)</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
         <v>0.122276157485133</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.00525209358487769</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.0170584982010219</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.0584595171780453</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.0538159395240244</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>0.192555277655534</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>0.13305013527383</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>0.218276543322606</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>0.223714984694037</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>0.0716039170780793</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>85+</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.00362697294445751</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.00871302140938013</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.00307518402684005</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.0181486752934244</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>0.0691588835410011</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>0.0787230917013141</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0.0140906644175085</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>0.210295598977004</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>0.109974160472263</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/interim/interaction_matrices/willem_2012/phases/total_phases.xlsx
+++ b/data/interim/interaction_matrices/willem_2012/phases/total_phases.xlsx
@@ -439,802 +439,6 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>8.61114955807408</v>
-      </c>
-      <c r="C2">
-        <v>0.833935019404327</v>
-      </c>
-      <c r="D2">
-        <v>0.5682801153101441</v>
-      </c>
-      <c r="E2">
-        <v>1.75586950288063</v>
-      </c>
-      <c r="F2">
-        <v>2.11664332286198</v>
-      </c>
-      <c r="G2">
-        <v>1.07760315247374</v>
-      </c>
-      <c r="H2">
-        <v>0.930447609887303</v>
-      </c>
-      <c r="I2">
-        <v>0.388143895268713</v>
-      </c>
-      <c r="J2">
-        <v>0.194554932281382</v>
-      </c>
-      <c r="K2">
-        <v>0.0208399703766592</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>1.62464948703735</v>
-      </c>
-      <c r="C3">
-        <v>10.2024509978958</v>
-      </c>
-      <c r="D3">
-        <v>2.3531644554918</v>
-      </c>
-      <c r="E3">
-        <v>3.11148900845971</v>
-      </c>
-      <c r="F3">
-        <v>2.1581076325096</v>
-      </c>
-      <c r="G3">
-        <v>1.83025706646436</v>
-      </c>
-      <c r="H3">
-        <v>0.381448289384702</v>
-      </c>
-      <c r="I3">
-        <v>0.349867966315856</v>
-      </c>
-      <c r="J3">
-        <v>0.111544111686216</v>
-      </c>
-      <c r="K3">
-        <v>0.0918308668798731</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>0.9048016366270841</v>
-      </c>
-      <c r="C4">
-        <v>1.92316138872708</v>
-      </c>
-      <c r="D4">
-        <v>6.15189471041101</v>
-      </c>
-      <c r="E4">
-        <v>3.12873167064806</v>
-      </c>
-      <c r="F4">
-        <v>2.2125539396801</v>
-      </c>
-      <c r="G4">
-        <v>3.27484972895714</v>
-      </c>
-      <c r="H4">
-        <v>0.8422105776160601</v>
-      </c>
-      <c r="I4">
-        <v>0.336796325334897</v>
-      </c>
-      <c r="J4">
-        <v>0.154446742604574</v>
-      </c>
-      <c r="K4">
-        <v>0.10279999442724</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>1.83312729034624</v>
-      </c>
-      <c r="C5">
-        <v>1.66740535554375</v>
-      </c>
-      <c r="D5">
-        <v>2.05152960228826</v>
-      </c>
-      <c r="E5">
-        <v>5.27218354538779</v>
-      </c>
-      <c r="F5">
-        <v>4.170866949193</v>
-      </c>
-      <c r="G5">
-        <v>4.43751605593746</v>
-      </c>
-      <c r="H5">
-        <v>2.23509140024301</v>
-      </c>
-      <c r="I5">
-        <v>0.5238988562048279</v>
-      </c>
-      <c r="J5">
-        <v>0.310510153563409</v>
-      </c>
-      <c r="K5">
-        <v>0.203968808302052</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>2.05061850063921</v>
-      </c>
-      <c r="C6">
-        <v>1.07320533968284</v>
-      </c>
-      <c r="D6">
-        <v>1.34629471183976</v>
-      </c>
-      <c r="E6">
-        <v>3.87046495272467</v>
-      </c>
-      <c r="F6">
-        <v>5.38623365438201</v>
-      </c>
-      <c r="G6">
-        <v>4.03246549227232</v>
-      </c>
-      <c r="H6">
-        <v>2.1837257370587</v>
-      </c>
-      <c r="I6">
-        <v>0.9693050987879929</v>
-      </c>
-      <c r="J6">
-        <v>0.454288546176596</v>
-      </c>
-      <c r="K6">
-        <v>0.164078026856949</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>1.00280448519873</v>
-      </c>
-      <c r="C7">
-        <v>0.8742628827204059</v>
-      </c>
-      <c r="D7">
-        <v>1.91407025160079</v>
-      </c>
-      <c r="E7">
-        <v>3.95545970650394</v>
-      </c>
-      <c r="F7">
-        <v>3.8733869389069</v>
-      </c>
-      <c r="G7">
-        <v>5.2402877879435</v>
-      </c>
-      <c r="H7">
-        <v>2.52785646912505</v>
-      </c>
-      <c r="I7">
-        <v>1.22236571064588</v>
-      </c>
-      <c r="J7">
-        <v>0.763777653609236</v>
-      </c>
-      <c r="K7">
-        <v>0.145128421051211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>1.02952012568295</v>
-      </c>
-      <c r="C8">
-        <v>0.216646222851063</v>
-      </c>
-      <c r="D8">
-        <v>0.5852921377741911</v>
-      </c>
-      <c r="E8">
-        <v>2.36885139316917</v>
-      </c>
-      <c r="F8">
-        <v>2.49404232042816</v>
-      </c>
-      <c r="G8">
-        <v>3.00564658263296</v>
-      </c>
-      <c r="H8">
-        <v>2.58577059395861</v>
-      </c>
-      <c r="I8">
-        <v>0.81215397604949</v>
-      </c>
-      <c r="J8">
-        <v>0.461924748042262</v>
-      </c>
-      <c r="K8">
-        <v>0.191576374694039</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
-        <v>0.619371762519808</v>
-      </c>
-      <c r="C9">
-        <v>0.286573056751293</v>
-      </c>
-      <c r="D9">
-        <v>0.337547634348598</v>
-      </c>
-      <c r="E9">
-        <v>0.8007661473487521</v>
-      </c>
-      <c r="F9">
-        <v>1.59654788459805</v>
-      </c>
-      <c r="G9">
-        <v>2.09605360887651</v>
-      </c>
-      <c r="H9">
-        <v>1.17126212654357</v>
-      </c>
-      <c r="I9">
-        <v>1.99325316005328</v>
-      </c>
-      <c r="J9">
-        <v>0.8470941302027479</v>
-      </c>
-      <c r="K9">
-        <v>0.123857848011403</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>0.39848572365866</v>
-      </c>
-      <c r="C10">
-        <v>0.117270750465588</v>
-      </c>
-      <c r="D10">
-        <v>0.198681924011471</v>
-      </c>
-      <c r="E10">
-        <v>0.609180426001695</v>
-      </c>
-      <c r="F10">
-        <v>0.9604286755057589</v>
-      </c>
-      <c r="G10">
-        <v>1.68104776918448</v>
-      </c>
-      <c r="H10">
-        <v>0.855064420629336</v>
-      </c>
-      <c r="I10">
-        <v>1.08728538902178</v>
-      </c>
-      <c r="J10">
-        <v>0.913586801881675</v>
-      </c>
-      <c r="K10">
-        <v>0.302370126956865</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>0.125360588349138</v>
-      </c>
-      <c r="C11">
-        <v>0.283547055857157</v>
-      </c>
-      <c r="D11">
-        <v>0.388388263729695</v>
-      </c>
-      <c r="E11">
-        <v>1.17524197889506</v>
-      </c>
-      <c r="F11">
-        <v>1.01877237186244</v>
-      </c>
-      <c r="G11">
-        <v>0.9381212643774459</v>
-      </c>
-      <c r="H11">
-        <v>1.04150883593759</v>
-      </c>
-      <c r="I11">
-        <v>0.466905309532618</v>
-      </c>
-      <c r="J11">
-        <v>0.888039503366962</v>
-      </c>
-      <c r="K11">
-        <v>1.12414684090862</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>4.95011276316063</v>
-      </c>
-      <c r="C2">
-        <v>0.428506302982155</v>
-      </c>
-      <c r="D2">
-        <v>0.4012594048414529</v>
-      </c>
-      <c r="E2">
-        <v>1.12482184011456</v>
-      </c>
-      <c r="F2">
-        <v>1.42839432233008</v>
-      </c>
-      <c r="G2">
-        <v>0.6389189759977479</v>
-      </c>
-      <c r="H2">
-        <v>0.5970939246885589</v>
-      </c>
-      <c r="I2">
-        <v>0.322965160690765</v>
-      </c>
-      <c r="J2">
-        <v>0.174468874310895</v>
-      </c>
-      <c r="K2">
-        <v>0.0143797737499922</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>0.834804306250982</v>
-      </c>
-      <c r="C3">
-        <v>5.34714348739267</v>
-      </c>
-      <c r="D3">
-        <v>1.06745117850894</v>
-      </c>
-      <c r="E3">
-        <v>1.25202084885098</v>
-      </c>
-      <c r="F3">
-        <v>1.1723976544487</v>
-      </c>
-      <c r="G3">
-        <v>0.877439672446519</v>
-      </c>
-      <c r="H3">
-        <v>0.152597245857336</v>
-      </c>
-      <c r="I3">
-        <v>0.251382149255555</v>
-      </c>
-      <c r="J3">
-        <v>0.0706499964120099</v>
-      </c>
-      <c r="K3">
-        <v>0.0742989834268732</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>0.6388753652138829</v>
-      </c>
-      <c r="C4">
-        <v>0.8723915942502929</v>
-      </c>
-      <c r="D4">
-        <v>2.58301722544248</v>
-      </c>
-      <c r="E4">
-        <v>1.19835843870504</v>
-      </c>
-      <c r="F4">
-        <v>0.8079111357607449</v>
-      </c>
-      <c r="G4">
-        <v>1.43862569246641</v>
-      </c>
-      <c r="H4">
-        <v>0.351962774777115</v>
-      </c>
-      <c r="I4">
-        <v>0.117325315772357</v>
-      </c>
-      <c r="J4">
-        <v>0.0738300834471524</v>
-      </c>
-      <c r="K4">
-        <v>0.0592802238261513</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>1.1743136995709</v>
-      </c>
-      <c r="C5">
-        <v>0.670941231979473</v>
-      </c>
-      <c r="D5">
-        <v>0.785771382768054</v>
-      </c>
-      <c r="E5">
-        <v>2.45158747703602</v>
-      </c>
-      <c r="F5">
-        <v>1.44196131998854</v>
-      </c>
-      <c r="G5">
-        <v>1.620038093953</v>
-      </c>
-      <c r="H5">
-        <v>0.9017294789904959</v>
-      </c>
-      <c r="I5">
-        <v>0.210875254102876</v>
-      </c>
-      <c r="J5">
-        <v>0.149284442880086</v>
-      </c>
-      <c r="K5">
-        <v>0.08761361238041099</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>1.38383817053199</v>
-      </c>
-      <c r="C6">
-        <v>0.583021626925453</v>
-      </c>
-      <c r="D6">
-        <v>0.49159772794891</v>
-      </c>
-      <c r="E6">
-        <v>1.33810567927133</v>
-      </c>
-      <c r="F6">
-        <v>2.39231092782578</v>
-      </c>
-      <c r="G6">
-        <v>1.523002666951</v>
-      </c>
-      <c r="H6">
-        <v>0.726209612092817</v>
-      </c>
-      <c r="I6">
-        <v>0.430966501354483</v>
-      </c>
-      <c r="J6">
-        <v>0.205411253946177</v>
-      </c>
-      <c r="K6">
-        <v>0.103627618358709</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>0.5945702862304271</v>
-      </c>
-      <c r="C7">
-        <v>0.419128521070666</v>
-      </c>
-      <c r="D7">
-        <v>0.840841830631239</v>
-      </c>
-      <c r="E7">
-        <v>1.44405007730812</v>
-      </c>
-      <c r="F7">
-        <v>1.46292104653924</v>
-      </c>
-      <c r="G7">
-        <v>2.37606867486476</v>
-      </c>
-      <c r="H7">
-        <v>1.09707753987727</v>
-      </c>
-      <c r="I7">
-        <v>0.50294989247226</v>
-      </c>
-      <c r="J7">
-        <v>0.390832111159366</v>
-      </c>
-      <c r="K7">
-        <v>0.0892548138875776</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>0.66067149386772</v>
-      </c>
-      <c r="C8">
-        <v>0.0866686726680405</v>
-      </c>
-      <c r="D8">
-        <v>0.244595651421685</v>
-      </c>
-      <c r="E8">
-        <v>0.9556938621553009</v>
-      </c>
-      <c r="F8">
-        <v>0.8294070428920859</v>
-      </c>
-      <c r="G8">
-        <v>1.30443614931856</v>
-      </c>
-      <c r="H8">
-        <v>1.40751691798508</v>
-      </c>
-      <c r="I8">
-        <v>0.349826944611701</v>
-      </c>
-      <c r="J8">
-        <v>0.249570552933473</v>
-      </c>
-      <c r="K8">
-        <v>0.107629463462997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
-        <v>0.515364284348841</v>
-      </c>
-      <c r="C9">
-        <v>0.205904392115276</v>
-      </c>
-      <c r="D9">
-        <v>0.117587039433349</v>
-      </c>
-      <c r="E9">
-        <v>0.3223174908653161</v>
-      </c>
-      <c r="F9">
-        <v>0.709847350365188</v>
-      </c>
-      <c r="G9">
-        <v>0.8624341537227019</v>
-      </c>
-      <c r="H9">
-        <v>0.5045090748200329</v>
-      </c>
-      <c r="I9">
-        <v>1.1961521443084</v>
-      </c>
-      <c r="J9">
-        <v>0.531364697589447</v>
-      </c>
-      <c r="K9">
-        <v>0.0733814531738432</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>0.357345634060503</v>
-      </c>
-      <c r="C10">
-        <v>0.0742771444801538</v>
-      </c>
-      <c r="D10">
-        <v>0.0949758006017882</v>
-      </c>
-      <c r="E10">
-        <v>0.2928766079481699</v>
-      </c>
-      <c r="F10">
-        <v>0.434267736270008</v>
-      </c>
-      <c r="G10">
-        <v>0.860207739104985</v>
-      </c>
-      <c r="H10">
-        <v>0.46197762980796</v>
-      </c>
-      <c r="I10">
-        <v>0.682031726264824</v>
-      </c>
-      <c r="J10">
-        <v>0.501777727933594</v>
-      </c>
-      <c r="K10">
-        <v>0.112484256265844</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>0.08649997409043771</v>
-      </c>
-      <c r="C11">
-        <v>0.229413689750183</v>
-      </c>
-      <c r="D11">
-        <v>0.223966385734023</v>
-      </c>
-      <c r="E11">
-        <v>0.504818339868996</v>
-      </c>
-      <c r="F11">
-        <v>0.643431400097229</v>
-      </c>
-      <c r="G11">
-        <v>0.576949974715438</v>
-      </c>
-      <c r="H11">
-        <v>0.5851297550804979</v>
-      </c>
-      <c r="I11">
-        <v>0.2766251041672571</v>
-      </c>
-      <c r="J11">
-        <v>0.330358240333616</v>
-      </c>
-      <c r="K11">
-        <v>0.246486184482509</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
